--- a/test.xlsx
+++ b/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>特征名称1</t>
   </si>
@@ -35,10 +35,16 @@
     <t>特征名称2</t>
   </si>
   <si>
+    <t>特征名称3</t>
+  </si>
+  <si>
     <t>样本名称1</t>
   </si>
   <si>
     <t>样本名称2</t>
+  </si>
+  <si>
+    <t>样本名称3</t>
   </si>
 </sst>
 </file>
@@ -1186,15 +1192,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="4" width="10.6363636363636" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1202,10 +1211,13 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -1213,16 +1225,36 @@
       <c r="C2" s="1">
         <v>20</v>
       </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
